--- a/biology/Botanique/Grevillea_australis/Grevillea_australis.xlsx
+++ b/biology/Botanique/Grevillea_australis/Grevillea_australis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Grevillea australis est une espèce d'arbuste de la famille des Proteaceae. C'est le seul Grevillea à pousser naturellement en Tasmanie. Il y a plusieurs variantes dans la nature et c'est donc une espèce d'aspect très variable.
 Il mesure entre 0,2 mètre et 2,5 mètres de haut et ses feuilles de forme ovale font de 15 à 30 mm de long pour 1 à 5 mm de large. Les fleurs blanches longues de 6 mm sont portées sur des hampes et les fruits sont des follicules bruns et coriaces mesurant 6 à 12 mm.
